--- a/Зварки квітень.xlsx
+++ b/Зварки квітень.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>Кількість зварок</t>
   </si>
@@ -40,6 +40,54 @@
   </si>
   <si>
     <t>(поставили дільник на 4 замість 2 та включили 4 абонента)</t>
+  </si>
+  <si>
+    <t>vlad_verbna22</t>
+  </si>
+  <si>
+    <t>vlad_verbna28</t>
+  </si>
+  <si>
+    <t>Бокс на 2-ох абонентів</t>
+  </si>
+  <si>
+    <t>vor_peremogy36</t>
+  </si>
+  <si>
+    <t>Абонент + 8 зварок на Тракторну</t>
+  </si>
+  <si>
+    <t>vor_peremogy36 + 2 волокна на данківці</t>
+  </si>
+  <si>
+    <t>4 абонента + поставили 2-ку дільник</t>
+  </si>
+  <si>
+    <t>ned_chop3</t>
+  </si>
+  <si>
+    <t>ned_chop2</t>
+  </si>
+  <si>
+    <t>2 абонента дільник на 2 і 7 спрямлених</t>
+  </si>
+  <si>
+    <t>vlad_nikitina2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 4 абонента</t>
+  </si>
+  <si>
+    <t>vlad_molod6</t>
+  </si>
+  <si>
+    <t>vlad_molod5</t>
+  </si>
+  <si>
+    <t>vlad_molod9</t>
+  </si>
+  <si>
+    <t>3 абонента</t>
   </si>
 </sst>
 </file>
@@ -76,19 +124,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -384,70 +444,258 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.140625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="28.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="31.140625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" style="4" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="42" customHeight="1">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>42846</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
         <v>4626</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2" s="4">
         <v>6</v>
       </c>
     </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>4629</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" spans="1:7" ht="30">
+      <c r="A5" s="5">
+        <v>42840</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>3524</v>
+      </c>
+      <c r="E5" s="4">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="30">
+      <c r="D6" s="8">
+        <v>1462</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="30">
+      <c r="D7" s="1">
+        <v>4630</v>
+      </c>
+      <c r="E7" s="4">
+        <v>5</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="30">
+      <c r="A8" s="2">
+        <v>42838</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>4631</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="5">
+        <v>42838</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4634</v>
+      </c>
+      <c r="E10" s="4">
+        <v>4</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>4636</v>
+      </c>
+      <c r="E11" s="7">
+        <v>3</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="180" verticalDpi="180" r:id="rId1"/>
 </worksheet>
